--- a/Entropy methods/Compute Data.xlsx
+++ b/Entropy methods/Compute Data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filipedasilva/Documents/GitHub/Medication_optPD/Entropy methods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9507B5BC-22E6-0D47-AE0C-0F9C7644B543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857A5796-005C-134D-9AB1-D5AE1083BD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{480EFDA8-9315-2B44-984A-233FDF363696}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18920" xr2:uid="{480EFDA8-9315-2B44-984A-233FDF363696}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="72">
   <si>
     <t>Fp1:</t>
   </si>
@@ -236,15 +236,9 @@
     <t>Top 10</t>
   </si>
   <si>
-    <t>Level of channels</t>
-  </si>
-  <si>
     <t>Sample entropy</t>
   </si>
   <si>
-    <t>fuzzy entropy</t>
-  </si>
-  <si>
     <t>Averg:</t>
   </si>
   <si>
@@ -255,6 +249,9 @@
   </si>
   <si>
     <t>Max:</t>
+  </si>
+  <si>
+    <t>Fuzzy entropy</t>
   </si>
 </sst>
 </file>
@@ -286,18 +283,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -313,18 +304,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -662,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D929E5-5903-3641-9DDE-BF1CE6EF1F68}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -683,14 +673,14 @@
       <c r="C1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>67</v>
+      <c r="D1" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="E1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>68</v>
+      <c r="F1" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -704,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>0.01</v>
+        <v>0.316</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>0.316</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -724,13 +714,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>9.6000000000000002E-2</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>0.58599999999999997</v>
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -744,13 +734,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>0.11</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="2">
-        <v>0.60599999999999998</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -764,13 +754,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="2">
-        <v>7.4999999999999997E-2</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="2">
-        <v>0.59499999999999997</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -784,13 +774,13 @@
         <v>4</v>
       </c>
       <c r="D6" s="2">
-        <v>0.16900000000000001</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="2">
-        <v>0.69599999999999995</v>
+        <v>0.16900000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -804,13 +794,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>0.221</v>
+        <v>0.71</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="2">
-        <v>0.71</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -824,13 +814,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="2">
-        <v>0.312</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="2">
-        <v>0.71199999999999997</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -844,13 +834,13 @@
         <v>7</v>
       </c>
       <c r="D9" s="2">
-        <v>0.44900000000000001</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="2">
-        <v>0.77100000000000002</v>
+        <v>0.44900000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -864,13 +854,13 @@
         <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>0.22500000000000001</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="2">
-        <v>0.71899999999999997</v>
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -884,13 +874,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>0.152</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="2">
-        <v>0.71699999999999997</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -904,13 +894,13 @@
         <v>10</v>
       </c>
       <c r="D12" s="2">
-        <v>0.317</v>
+        <v>0.751</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="2">
-        <v>0.751</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -924,13 +914,13 @@
         <v>11</v>
       </c>
       <c r="D13" s="2">
-        <v>0.93400000000000005</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="2">
-        <v>0.80500000000000005</v>
+        <v>0.93400000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -944,13 +934,13 @@
         <v>12</v>
       </c>
       <c r="D14" s="2">
-        <v>0.86899999999999999</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="2">
-        <v>0.71899999999999997</v>
+        <v>0.86899999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -964,13 +954,13 @@
         <v>13</v>
       </c>
       <c r="D15" s="2">
-        <v>0.32500000000000001</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="2">
-        <v>0.70499999999999996</v>
+        <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -984,13 +974,13 @@
         <v>14</v>
       </c>
       <c r="D16" s="2">
-        <v>0.14299999999999999</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="2">
-        <v>0.70399999999999996</v>
+        <v>0.14299999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1004,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="D17" s="2">
-        <v>0.109</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="2">
-        <v>0.89200000000000002</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1024,13 +1014,13 @@
         <v>16</v>
       </c>
       <c r="D18" s="2">
-        <v>0.124</v>
+        <v>0.86</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="2">
-        <v>0.86</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1044,13 +1034,13 @@
         <v>17</v>
       </c>
       <c r="D19" s="2">
-        <v>0.11</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="2">
-        <v>1.0189999999999999</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1064,13 +1054,13 @@
         <v>18</v>
       </c>
       <c r="D20" s="2">
-        <v>0.24399999999999999</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="2">
-        <v>0.71199999999999997</v>
+        <v>0.24399999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1084,13 +1074,13 @@
         <v>19</v>
       </c>
       <c r="D21" s="2">
-        <v>0.126</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="2">
-        <v>0.82399999999999995</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1104,13 +1094,13 @@
         <v>20</v>
       </c>
       <c r="D22" s="2">
-        <v>0.129</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F22" s="2">
-        <v>0.99399999999999999</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1124,13 +1114,13 @@
         <v>21</v>
       </c>
       <c r="D23" s="2">
-        <v>0.28000000000000003</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="2">
-        <v>0.81200000000000006</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1144,13 +1134,13 @@
         <v>22</v>
       </c>
       <c r="D24" s="2">
-        <v>3.0579999999999998</v>
+        <v>1.254</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="2">
-        <v>1.254</v>
+        <v>3.0579999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1164,13 +1154,13 @@
         <v>23</v>
       </c>
       <c r="D25" s="2">
-        <v>0.63700000000000001</v>
+        <v>0.747</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="2">
-        <v>0.747</v>
+        <v>0.63700000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1184,13 +1174,13 @@
         <v>24</v>
       </c>
       <c r="D26" s="2">
-        <v>0.51800000000000002</v>
+        <v>0.82</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="2">
-        <v>0.82</v>
+        <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1204,13 +1194,13 @@
         <v>25</v>
       </c>
       <c r="D27" s="2">
-        <v>0.19500000000000001</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F27" s="2">
-        <v>0.80100000000000005</v>
+        <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1224,13 +1214,13 @@
         <v>26</v>
       </c>
       <c r="D28" s="2">
-        <v>0.13</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="2">
-        <v>0.68700000000000006</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1244,13 +1234,13 @@
         <v>27</v>
       </c>
       <c r="D29" s="2">
-        <v>0.13</v>
+        <v>0.72</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F29" s="2">
-        <v>0.72</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1264,13 +1254,13 @@
         <v>28</v>
       </c>
       <c r="D30" s="2">
-        <v>0.30199999999999999</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F30" s="2">
-        <v>0.70699999999999996</v>
+        <v>0.30199999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1284,13 +1274,13 @@
         <v>29</v>
       </c>
       <c r="D31" s="2">
-        <v>5.2999999999999999E-2</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F31" s="2">
-        <v>0.55000000000000004</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1304,13 +1294,13 @@
         <v>30</v>
       </c>
       <c r="D32" s="2">
-        <v>2.1999999999999999E-2</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F32" s="2">
-        <v>0.47599999999999998</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1324,13 +1314,13 @@
         <v>31</v>
       </c>
       <c r="D33" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="2">
-        <v>0.26300000000000001</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1344,13 +1334,13 @@
         <v>32</v>
       </c>
       <c r="D34" s="2">
-        <v>1.2E-2</v>
+        <v>0.374</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F34" s="2">
-        <v>0.374</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1364,13 +1354,13 @@
         <v>33</v>
       </c>
       <c r="D35" s="2">
-        <v>2.3E-2</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F35" s="2">
-        <v>0.46700000000000003</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1384,13 +1374,13 @@
         <v>34</v>
       </c>
       <c r="D36" s="2">
-        <v>0.02</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F36" s="2">
-        <v>0.45300000000000001</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1404,13 +1394,13 @@
         <v>35</v>
       </c>
       <c r="D37" s="2">
-        <v>0.11</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F37" s="2">
-        <v>0.60499999999999998</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1424,13 +1414,13 @@
         <v>36</v>
       </c>
       <c r="D38" s="2">
-        <v>8.3000000000000004E-2</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F38" s="2">
-        <v>0.60299999999999998</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1444,13 +1434,13 @@
         <v>37</v>
       </c>
       <c r="D39" s="2">
-        <v>0.22700000000000001</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F39" s="2">
-        <v>0.72299999999999998</v>
+        <v>0.22700000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1464,13 +1454,13 @@
         <v>38</v>
       </c>
       <c r="D40" s="2">
-        <v>0.29399999999999998</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F40" s="2">
-        <v>0.73099999999999998</v>
+        <v>0.29399999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1484,13 +1474,13 @@
         <v>39</v>
       </c>
       <c r="D41" s="2">
-        <v>0.30599999999999999</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F41" s="2">
-        <v>0.69399999999999995</v>
+        <v>0.30599999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1504,13 +1494,13 @@
         <v>40</v>
       </c>
       <c r="D42" s="2">
-        <v>0.64100000000000001</v>
+        <v>0.748</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F42" s="2">
-        <v>0.748</v>
+        <v>0.64100000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1524,13 +1514,13 @@
         <v>41</v>
       </c>
       <c r="D43" s="2">
-        <v>0.36299999999999999</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F43" s="2">
-        <v>0.76400000000000001</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1544,13 +1534,13 @@
         <v>42</v>
       </c>
       <c r="D44" s="2">
-        <v>0.23200000000000001</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F44" s="2">
-        <v>0.72799999999999998</v>
+        <v>0.23200000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1564,13 +1554,13 @@
         <v>43</v>
       </c>
       <c r="D45" s="2">
-        <v>0.59499999999999997</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F45" s="2">
-        <v>0.79900000000000004</v>
+        <v>0.59499999999999997</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1584,13 +1574,13 @@
         <v>44</v>
       </c>
       <c r="D46" s="2">
-        <v>0.53500000000000003</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F46" s="2">
-        <v>0.72299999999999998</v>
+        <v>0.53500000000000003</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1604,13 +1594,13 @@
         <v>45</v>
       </c>
       <c r="D47" s="2">
-        <v>0.23300000000000001</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F47" s="2">
-        <v>0.71199999999999997</v>
+        <v>0.23300000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1624,13 +1614,13 @@
         <v>46</v>
       </c>
       <c r="D48" s="2">
-        <v>0.10199999999999999</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F48" s="2">
-        <v>0.80400000000000005</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1644,13 +1634,13 @@
         <v>47</v>
       </c>
       <c r="D49" s="2">
-        <v>0.13500000000000001</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F49" s="2">
-        <v>0.66800000000000004</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1664,13 +1654,13 @@
         <v>48</v>
       </c>
       <c r="D50" s="2">
-        <v>0.14599999999999999</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F50" s="2">
-        <v>0.65200000000000002</v>
+        <v>0.14599999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1684,13 +1674,13 @@
         <v>49</v>
       </c>
       <c r="D51" s="2">
-        <v>0.13800000000000001</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F51" s="2">
-        <v>0.74299999999999999</v>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1704,13 +1694,13 @@
         <v>50</v>
       </c>
       <c r="D52" s="2">
-        <v>9.0999999999999998E-2</v>
+        <v>0.91</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F52" s="2">
-        <v>0.91</v>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -1724,13 +1714,13 @@
         <v>51</v>
       </c>
       <c r="D53" s="2">
-        <v>0.16</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F53" s="2">
-        <v>0.73199999999999998</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -1744,13 +1734,13 @@
         <v>52</v>
       </c>
       <c r="D54" s="2">
-        <v>0.47</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F54" s="2">
-        <v>0.71199999999999997</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -1764,13 +1754,13 @@
         <v>53</v>
       </c>
       <c r="D55" s="2">
-        <v>0.53300000000000003</v>
+        <v>0.81</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F55" s="2">
-        <v>0.81</v>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -1784,13 +1774,13 @@
         <v>54</v>
       </c>
       <c r="D56" s="2">
-        <v>0.19700000000000001</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F56" s="2">
-        <v>0.80900000000000005</v>
+        <v>0.19700000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -1804,13 +1794,13 @@
         <v>55</v>
       </c>
       <c r="D57" s="2">
-        <v>0.22600000000000001</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F57" s="2">
-        <v>0.88800000000000001</v>
+        <v>0.22600000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -1824,13 +1814,13 @@
         <v>56</v>
       </c>
       <c r="D58" s="2">
-        <v>0.71399999999999997</v>
+        <v>0.751</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F58" s="2">
-        <v>0.751</v>
+        <v>0.71399999999999997</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -1844,13 +1834,13 @@
         <v>57</v>
       </c>
       <c r="D59" s="2">
-        <v>0.151</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F59" s="2">
-        <v>0.65300000000000002</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1864,13 +1854,13 @@
         <v>58</v>
       </c>
       <c r="D60" s="2">
-        <v>0.19400000000000001</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F60" s="2">
-        <v>0.78600000000000003</v>
+        <v>0.19400000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -1884,13 +1874,13 @@
         <v>59</v>
       </c>
       <c r="D61" s="2">
-        <v>3.1E-2</v>
+        <v>0.498</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F61" s="2">
-        <v>0.498</v>
+        <v>3.1E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -1904,13 +1894,13 @@
         <v>60</v>
       </c>
       <c r="D62" s="2">
-        <v>8.7999999999999995E-2</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F62" s="2">
-        <v>0.57699999999999996</v>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -1924,13 +1914,13 @@
         <v>61</v>
       </c>
       <c r="D63" s="2">
-        <v>1.2999999999999999E-2</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F63" s="2">
-        <v>0.41399999999999998</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -1944,33 +1934,36 @@
         <v>62</v>
       </c>
       <c r="D64" s="2">
-        <v>0.01</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F64" s="2">
-        <v>0.30599999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>66</v>
+      <c r="B66" s="2" t="str">
+        <f>B1</f>
+        <v>Approximate entropy</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>66</v>
+      <c r="D66" s="2" t="str">
+        <f>D1</f>
+        <v>Fuzzy entropy</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>66</v>
+      <c r="F66" s="2" t="str">
+        <f>F1</f>
+        <v>Sample entropy</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -1984,16 +1977,16 @@
       <c r="C67">
         <v>1</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="2">
         <f>LARGE(D$2:D$64,C67)</f>
-        <v>3.0579999999999998</v>
+        <v>1.254</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="5">
         <f>LARGE(F$2:F$64,E67)</f>
-        <v>1.254</v>
+        <v>3.0579999999999998</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -2001,22 +1994,22 @@
         <v>2</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:D76" si="0">LARGE(B$2:B$64,A68)</f>
+        <f t="shared" ref="B68:B76" si="0">LARGE(B$2:B$64,A68)</f>
         <v>0.68</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" si="0"/>
-        <v>0.93400000000000005</v>
+        <f t="shared" ref="D68" si="1">LARGE(D$2:D$64,C68)</f>
+        <v>1.0189999999999999</v>
       </c>
       <c r="E68">
         <v>2</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" ref="F68" si="1">LARGE(F$2:F$64,E68)</f>
-        <v>1.0189999999999999</v>
+        <f t="shared" ref="F68:F76" si="2">LARGE(F$2:F$64,E68)</f>
+        <v>0.93400000000000005</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -2031,15 +2024,15 @@
         <v>3</v>
       </c>
       <c r="D69" s="2">
-        <f t="shared" si="0"/>
-        <v>0.86899999999999999</v>
+        <f t="shared" ref="D69" si="3">LARGE(D$2:D$64,C69)</f>
+        <v>0.99399999999999999</v>
       </c>
       <c r="E69">
         <v>3</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" ref="F69" si="2">LARGE(F$2:F$64,E69)</f>
-        <v>0.99399999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.86899999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -2054,15 +2047,15 @@
         <v>4</v>
       </c>
       <c r="D70" s="2">
-        <f t="shared" si="0"/>
-        <v>0.71399999999999997</v>
+        <f t="shared" ref="D70" si="4">LARGE(D$2:D$64,C70)</f>
+        <v>0.91</v>
       </c>
       <c r="E70">
         <v>4</v>
       </c>
       <c r="F70" s="2">
-        <f t="shared" ref="F70" si="3">LARGE(F$2:F$64,E70)</f>
-        <v>0.91</v>
+        <f t="shared" si="2"/>
+        <v>0.71399999999999997</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -2078,14 +2071,14 @@
       </c>
       <c r="D71" s="2">
         <f>LARGE(D$2:D$64,C71)</f>
-        <v>0.64100000000000001</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="E71">
         <v>5</v>
       </c>
       <c r="F71" s="2">
         <f>LARGE(F$2:F$64,E71)</f>
-        <v>0.89200000000000002</v>
+        <v>0.64100000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -2100,15 +2093,15 @@
         <v>6</v>
       </c>
       <c r="D72" s="2">
-        <f t="shared" si="0"/>
-        <v>0.63700000000000001</v>
+        <f t="shared" ref="D72" si="5">LARGE(D$2:D$64,C72)</f>
+        <v>0.88800000000000001</v>
       </c>
       <c r="E72">
         <v>6</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" ref="F72" si="4">LARGE(F$2:F$64,E72)</f>
-        <v>0.88800000000000001</v>
+        <f t="shared" ref="F72:F80" si="6">LARGE(F$2:F$64,E72)</f>
+        <v>0.63700000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2123,15 +2116,15 @@
         <v>7</v>
       </c>
       <c r="D73" s="2">
-        <f t="shared" si="0"/>
-        <v>0.59499999999999997</v>
+        <f t="shared" ref="D73" si="7">LARGE(D$2:D$64,C73)</f>
+        <v>0.86</v>
       </c>
       <c r="E73">
         <v>7</v>
       </c>
       <c r="F73" s="2">
-        <f t="shared" ref="F73" si="5">LARGE(F$2:F$64,E73)</f>
-        <v>0.86</v>
+        <f t="shared" si="6"/>
+        <v>0.59499999999999997</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2146,15 +2139,15 @@
         <v>8</v>
       </c>
       <c r="D74" s="2">
-        <f t="shared" si="0"/>
-        <v>0.53500000000000003</v>
+        <f t="shared" ref="D74" si="8">LARGE(D$2:D$64,C74)</f>
+        <v>0.82399999999999995</v>
       </c>
       <c r="E74">
         <v>8</v>
       </c>
       <c r="F74" s="2">
-        <f t="shared" ref="F74" si="6">LARGE(F$2:F$64,E74)</f>
-        <v>0.82399999999999995</v>
+        <f t="shared" si="6"/>
+        <v>0.53500000000000003</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -2169,15 +2162,15 @@
         <v>9</v>
       </c>
       <c r="D75" s="2">
-        <f t="shared" si="0"/>
-        <v>0.53300000000000003</v>
+        <f t="shared" ref="D75" si="9">LARGE(D$2:D$64,C75)</f>
+        <v>0.82</v>
       </c>
       <c r="E75">
         <v>9</v>
       </c>
       <c r="F75" s="2">
-        <f t="shared" ref="F75" si="7">LARGE(F$2:F$64,E75)</f>
-        <v>0.82</v>
+        <f t="shared" si="6"/>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -2192,110 +2185,127 @@
         <v>10</v>
       </c>
       <c r="D76" s="2">
-        <f t="shared" si="0"/>
-        <v>0.51800000000000002</v>
+        <f t="shared" ref="D76" si="10">LARGE(D$2:D$64,C76)</f>
+        <v>0.81200000000000006</v>
       </c>
       <c r="E76">
         <v>10</v>
       </c>
       <c r="F76" s="2">
-        <f t="shared" ref="F76" si="8">LARGE(F$2:F$64,E76)</f>
-        <v>0.81200000000000006</v>
+        <f t="shared" si="6"/>
+        <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B77" s="6"/>
+      <c r="A77" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E77" t="s">
+        <v>65</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B78" s="6">
+      <c r="A78" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="4">
         <f>AVERAGE(B67:B76)</f>
         <v>0.52950000000000019</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" s="6">
+      <c r="C78" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D78" s="4">
         <f>AVERAGE(D67:D76)</f>
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F78" s="4">
+        <f>AVERAGE(F67:F76)</f>
         <v>0.90340000000000009</v>
       </c>
-      <c r="E78" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F78" s="6">
-        <f>AVERAGE(F67:F76)</f>
-        <v>0.92730000000000001</v>
-      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B79" s="6">
+      <c r="A79" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="4">
         <f>STDEV(B67:B76)</f>
         <v>0.22607582307221102</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D79" s="6">
+      <c r="C79" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" s="4">
         <f>STDEV(D67:D76)</f>
+        <v>0.13444870975786866</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F79" s="4">
+        <f>STDEV(F67:F76)</f>
         <v>0.77004144188622836</v>
       </c>
-      <c r="E79" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F79" s="6">
-        <f>STDEV(F67:F76)</f>
-        <v>0.13444870975786866</v>
-      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B80" s="6">
+      <c r="A80" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" s="4">
         <f>MIN(B67:B76)</f>
         <v>0.36499999999999999</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D80" s="6">
+      <c r="C80" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" s="4">
         <f>MIN(D67:D76)</f>
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F80" s="4">
+        <f>MIN(F67:F76)</f>
         <v>0.51800000000000002</v>
       </c>
-      <c r="E80" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F80" s="6">
-        <f>MIN(F67:F76)</f>
-        <v>0.81200000000000006</v>
-      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B81" s="6">
+      <c r="A81" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B81" s="4">
         <f>MAX(B67:B76)</f>
         <v>1.0920000000000001</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D81" s="6">
+      <c r="C81" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81" s="4">
         <f>MAX(D67:D76)</f>
+        <v>1.254</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F81" s="4">
+        <f>MAX(F67:F76)</f>
         <v>3.0579999999999998</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F81" s="6">
-        <f>MAX(F67:F76)</f>
-        <v>1.254</v>
       </c>
     </row>
   </sheetData>

--- a/Entropy methods/Compute Data.xlsx
+++ b/Entropy methods/Compute Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/filipedasilva/Documents/GitHub/Medication_optPD/Entropy methods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857A5796-005C-134D-9AB1-D5AE1083BD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5086A8-61F6-3041-81F6-C4A05B0FE6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18920" xr2:uid="{480EFDA8-9315-2B44-984A-233FDF363696}"/>
   </bookViews>
@@ -652,14 +652,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D929E5-5903-3641-9DDE-BF1CE6EF1F68}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:F81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -2008,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" ref="F68:F76" si="2">LARGE(F$2:F$64,E68)</f>
+        <f t="shared" ref="F68:F70" si="2">LARGE(F$2:F$64,E68)</f>
         <v>0.93400000000000005</v>
       </c>
     </row>
@@ -2100,7 +2102,7 @@
         <v>6</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" ref="F72:F80" si="6">LARGE(F$2:F$64,E72)</f>
+        <f t="shared" ref="F72:F76" si="6">LARGE(F$2:F$64,E72)</f>
         <v>0.63700000000000001</v>
       </c>
     </row>
